--- a/Raw Data/Marshall_Room_Capacity_Chart.xlsx
+++ b/Raw Data/Marshall_Room_Capacity_Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchen\Desktop\USC MSBAN\Spring 2018\DSO 570\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchen\Desktop\USC MSBAN\Spring 2018\DSO 570\DSO 570 Final Project - Scheduling Optimization\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66442E9D-FC84-4C98-B97A-722534657ABA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C0B02-52F8-4E3C-83CD-F3A4D6FE27C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Room" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Room</t>
   </si>
@@ -61,9 +61,6 @@
     <t>BRI202A</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>BRI5</t>
   </si>
   <si>
@@ -109,24 +106,9 @@
     <t>JKP212</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>JFF LL101</t>
   </si>
   <si>
-    <t xml:space="preserve">48 </t>
-  </si>
-  <si>
     <t>JFF LL102</t>
   </si>
   <si>
@@ -136,15 +118,9 @@
     <t>JFF LL105</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>JFF LL125</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>JFF233</t>
   </si>
   <si>
@@ -188,6 +164,105 @@
   </si>
   <si>
     <t>JFF417</t>
+  </si>
+  <si>
+    <t>GFS111</t>
+  </si>
+  <si>
+    <t>GFS118</t>
+  </si>
+  <si>
+    <t>KAP160</t>
+  </si>
+  <si>
+    <t>LVL13</t>
+  </si>
+  <si>
+    <t>LVL16</t>
+  </si>
+  <si>
+    <t>MHP B7B</t>
+  </si>
+  <si>
+    <t>SAL101</t>
+  </si>
+  <si>
+    <t>SLH100</t>
+  </si>
+  <si>
+    <t>SLH200</t>
+  </si>
+  <si>
+    <t>SOS B44</t>
+  </si>
+  <si>
+    <t>SOS B46</t>
+  </si>
+  <si>
+    <t>THH106</t>
+  </si>
+  <si>
+    <t>THH208</t>
+  </si>
+  <si>
+    <t>THH210</t>
+  </si>
+  <si>
+    <t>THH212</t>
+  </si>
+  <si>
+    <t>VHE217</t>
+  </si>
+  <si>
+    <t>VKC201</t>
+  </si>
+  <si>
+    <t>VKC203</t>
+  </si>
+  <si>
+    <t>VKC211</t>
+  </si>
+  <si>
+    <t>VKC260</t>
+  </si>
+  <si>
+    <t>VPD105</t>
+  </si>
+  <si>
+    <t>VPD106</t>
+  </si>
+  <si>
+    <t>VPD107</t>
+  </si>
+  <si>
+    <t>VPD116</t>
+  </si>
+  <si>
+    <t>WPH B27</t>
+  </si>
+  <si>
+    <t>WPH B28</t>
+  </si>
+  <si>
+    <t>WPH203</t>
+  </si>
+  <si>
+    <t>WPH205</t>
+  </si>
+  <si>
+    <t>ZHS159</t>
+  </si>
+  <si>
+    <t>ZHS163</t>
+  </si>
+  <si>
+    <t>ZHS252</t>
+  </si>
+  <si>
+    <t>ZHS352</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -264,15 +339,13 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -631,540 +704,902 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>16</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>48</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>36</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>39</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>46</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>16</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>54</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>20</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>42</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>34</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
         <v>36</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
         <v>269</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
         <v>73</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7">
         <v>73</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="7">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="B20" s="7">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="7">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B22" s="7">
+        <v>149</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="7">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="7">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B25" s="7">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B26" s="7">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B27" s="7">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B28" s="7">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B30" s="7">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B31" s="7">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7">
         <v>48</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="6"/>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B33" s="7">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="B34" s="7">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B35" s="7">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B36" s="7">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="B37" s="7">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="B38" s="7">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4">
+        <v>19</v>
+      </c>
+      <c r="B39" s="7">
         <v>52</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7">
         <v>56</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="4">
+        <v>21</v>
+      </c>
+      <c r="B41" s="7">
         <v>77</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="4">
+        <v>22</v>
+      </c>
+      <c r="B42" s="7">
         <v>77</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="4">
+        <v>23</v>
+      </c>
+      <c r="B43" s="7">
         <v>54</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="4">
+        <v>24</v>
+      </c>
+      <c r="B44" s="7">
         <v>54</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7">
         <v>78</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="4">
+        <v>26</v>
+      </c>
+      <c r="B46" s="7">
         <v>78</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="7">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="7">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="7">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="7">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="7">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="7">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="7">
+        <v>263</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="7">
+        <v>93</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="7">
+        <v>187</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="7">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="7">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="7">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="7">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="7">
+        <v>72</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="7">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="7">
+        <v>41</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="7">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="7">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="7">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="7">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="7">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="7">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="7">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="7">
+        <v>57</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="7">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7">
+        <v>48</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="7">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="7">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="7">
+        <v>121</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="7">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="7">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="7">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
     </row>

--- a/Raw Data/Marshall_Room_Capacity_Chart.xlsx
+++ b/Raw Data/Marshall_Room_Capacity_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchen\Desktop\USC MSBAN\Spring 2018\DSO 570\DSO 570 Final Project - Scheduling Optimization\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C0B02-52F8-4E3C-83CD-F3A4D6FE27C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DBB6BD-2904-4C1B-9490-11720AEBDCBE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Room</t>
   </si>
@@ -263,6 +263,81 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>UNASSIGNED1</t>
+  </si>
+  <si>
+    <t>UNASSIGNED2</t>
+  </si>
+  <si>
+    <t>UNASSIGNED3</t>
+  </si>
+  <si>
+    <t>UNASSIGNED4</t>
+  </si>
+  <si>
+    <t>UNASSIGNED5</t>
+  </si>
+  <si>
+    <t>UNASSIGNED6</t>
+  </si>
+  <si>
+    <t>UNASSIGNED7</t>
+  </si>
+  <si>
+    <t>UNASSIGNED8</t>
+  </si>
+  <si>
+    <t>UNASSIGNED9</t>
+  </si>
+  <si>
+    <t>UNASSIGNED10</t>
+  </si>
+  <si>
+    <t>UNASSIGNED11</t>
+  </si>
+  <si>
+    <t>UNASSIGNED12</t>
+  </si>
+  <si>
+    <t>UNASSIGNED13</t>
+  </si>
+  <si>
+    <t>UNASSIGNED14</t>
+  </si>
+  <si>
+    <t>UNASSIGNED15</t>
+  </si>
+  <si>
+    <t>UNASSIGNED16</t>
+  </si>
+  <si>
+    <t>UNASSIGNED17</t>
+  </si>
+  <si>
+    <t>UNASSIGNED18</t>
+  </si>
+  <si>
+    <t>UNASSIGNED19</t>
+  </si>
+  <si>
+    <t>UNASSIGNED20</t>
+  </si>
+  <si>
+    <t>UNASSIGNED21</t>
+  </si>
+  <si>
+    <t>UNASSIGNED22</t>
+  </si>
+  <si>
+    <t>UNASSIGNED23</t>
+  </si>
+  <si>
+    <t>UNASSIGNED24</t>
+  </si>
+  <si>
+    <t>UNASSIGNED25</t>
   </si>
 </sst>
 </file>
@@ -686,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1596,88 +1671,279 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="7">
+        <v>150</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="7">
+        <v>150</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="7">
+        <v>150</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="7">
+        <v>150</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="7">
+        <v>150</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="7">
+        <v>150</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="7">
+        <v>150</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="7">
+        <v>150</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="7">
+        <v>150</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="7">
+        <v>150</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="7">
+        <v>150</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="7">
+        <v>150</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="7">
+        <v>150</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="7">
+        <v>150</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="7">
+        <v>150</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="7">
+        <v>150</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="7">
+        <v>150</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="7">
+        <v>150</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="7">
+        <v>150</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="7">
+        <v>150</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="7">
+        <v>150</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="7">
+        <v>150</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="7">
+        <v>150</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="7">
+        <v>150</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="7">
+        <v>150</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="I1:I110">
